--- a/data/grid.xlsx
+++ b/data/grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\library\levelisedcost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2C482-5E98-48AE-97BD-CA74DA4492B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC6E70-D293-47E2-B856-315252FF1A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="2" xr2:uid="{438D528E-DAB1-4AB1-A3D8-DFFC1F928AB0}"/>
   </bookViews>
@@ -13575,7 +13575,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/data/grid.xlsx
+++ b/data/grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/levelisedcost/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89531D-12A1-454D-8D27-BA4530282D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97DD2A2-92BC-B347-9503-B474243B824E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29020" windowHeight="17500" activeTab="5" xr2:uid="{438D528E-DAB1-4AB1-A3D8-DFFC1F928AB0}"/>
+    <workbookView xWindow="21060" yWindow="4980" windowWidth="29020" windowHeight="17500" firstSheet="10" activeTab="14" xr2:uid="{438D528E-DAB1-4AB1-A3D8-DFFC1F928AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="capacity" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="124">
   <si>
     <t>nuclear</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,9 @@
     <t>trend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ESS</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +549,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +624,14 @@
       <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -729,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,14 +820,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1206,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1150228-CB59-4BE1-A320-0AC6F1BB2604}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="P2" sqref="P2:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1217,7 +1231,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1263,8 +1277,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1312,8 +1329,11 @@
         <f>ROUND(generation!O2*1000/8760/cf!O2, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -1361,8 +1381,11 @@
         <f>ROUND(generation!O3*1000/8760/cf!O3, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -1410,8 +1433,11 @@
         <f>ROUND(generation!O4*1000/8760/cf!O4, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -1459,8 +1485,11 @@
         <f>ROUND(generation!O5*1000/8760/cf!O5, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -1508,8 +1537,11 @@
         <f>ROUND(generation!O6*1000/8760/cf!O6, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -1557,8 +1589,11 @@
         <f>ROUND(generation!O7*1000/8760/cf!O7, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -1606,8 +1641,11 @@
         <f>ROUND(generation!O8*1000/8760/cf!O8, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -1655,8 +1693,11 @@
         <f>ROUND(generation!O9*1000/8760/cf!O9, 0)</f>
         <v>2510</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -1704,8 +1745,11 @@
         <f>ROUND(generation!O10*1000/8760/cf!O10, 0)</f>
         <v>4346</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -1753,8 +1797,11 @@
         <f>ROUND(generation!O11*1000/8760/cf!O11, 0)</f>
         <v>6644</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -1802,8 +1849,11 @@
         <f>ROUND(generation!O12*1000/8760/cf!O12, 0)</f>
         <v>9604</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -1851,8 +1901,11 @@
         <f>ROUND(generation!O13*1000/8760/cf!O13, 0)</f>
         <v>13559</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -1900,8 +1953,11 @@
         <f>ROUND(generation!O14*1000/8760/cf!O14, 0)</f>
         <v>19112</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -1949,8 +2005,11 @@
         <f>ROUND(generation!O15*1000/8760/cf!O15, 0)</f>
         <v>27478</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -2000,8 +2059,11 @@
         <f>ROUND(generation!O16*1000/8760/cf!O16, 0)</f>
         <v>32093</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -2051,8 +2113,11 @@
         <f>ROUND(generation!O17*1000/8760/cf!O17, 0)</f>
         <v>36707</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -2102,8 +2167,11 @@
         <f>ROUND(generation!O18*1000/8760/cf!O18, 0)</f>
         <v>41321</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -2153,8 +2221,11 @@
         <f>ROUND(generation!O19*1000/8760/cf!O19, 0)</f>
         <v>45935</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -2204,8 +2275,11 @@
         <f>ROUND(generation!O20*1000/8760/cf!O20, 0)</f>
         <v>50550</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -2255,8 +2329,11 @@
         <f>ROUND(generation!O21*1000/8760/cf!O21, 0)</f>
         <v>55164</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -2306,8 +2383,11 @@
         <f>ROUND(generation!O22*1000/8760/cf!O22, 0)</f>
         <v>59778</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -2357,8 +2437,11 @@
         <f>ROUND(generation!O23*1000/8760/cf!O23, 0)</f>
         <v>64393</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -2408,8 +2491,11 @@
         <f>ROUND(generation!O24*1000/8760/cf!O24, 0)</f>
         <v>69007</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -2459,8 +2545,11 @@
         <f>ROUND(generation!O25*1000/8760/cf!O25, 0)</f>
         <v>73621</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -2510,8 +2599,11 @@
         <f>ROUND(generation!O26*1000/8760/cf!O26, 0)</f>
         <v>78235</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -2561,8 +2653,11 @@
         <f>ROUND(generation!O27*1000/8760/cf!O27, 0)</f>
         <v>82850</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -2612,8 +2707,11 @@
         <f>ROUND(generation!O28*1000/8760/cf!O28, 0)</f>
         <v>87464</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -2663,8 +2761,11 @@
         <f>ROUND(generation!O29*1000/8760/cf!O29, 0)</f>
         <v>92078</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2689,15 +2790,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FD1AE2-D817-40CB-B168-C270A598E724}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O29"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2743,8 +2844,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2792,8 +2896,11 @@
         <f>D2</f>
         <v>482</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -2841,8 +2948,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2890,8 +3000,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -2939,8 +3052,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -2988,8 +3104,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -3037,8 +3156,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -3086,8 +3208,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -3135,8 +3260,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -3184,8 +3312,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -3233,8 +3364,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -3282,8 +3416,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -3331,8 +3468,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -3380,8 +3520,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -3429,8 +3572,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -3478,8 +3624,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -3527,8 +3676,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -3576,8 +3728,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -3625,8 +3780,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -3674,8 +3832,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -3723,8 +3884,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -3772,8 +3936,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -3821,8 +3988,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -3870,8 +4040,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -3919,8 +4092,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -3968,8 +4144,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -4017,8 +4196,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -4066,8 +4248,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -4115,8 +4300,11 @@
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -4132,15 +4320,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA64DC13-3D81-48A8-B102-AA7AD6D45A54}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="A1:O30"/>
+      <selection activeCell="P29" sqref="P2:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4186,8 +4374,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -4235,8 +4426,11 @@
         <f>D2</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -4284,8 +4478,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -4333,8 +4530,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -4382,8 +4582,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -4431,8 +4634,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -4480,8 +4686,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -4529,8 +4738,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -4578,8 +4790,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -4627,8 +4842,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -4676,8 +4894,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -4725,8 +4946,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -4774,8 +4998,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -4823,8 +5050,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -4872,8 +5102,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -4921,8 +5154,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -4970,8 +5206,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -5019,8 +5258,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -5068,8 +5310,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -5117,8 +5362,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -5166,8 +5414,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -5215,8 +5466,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -5264,8 +5518,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -5313,8 +5570,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -5362,8 +5622,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -5411,8 +5674,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -5460,8 +5726,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -5509,8 +5778,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -5558,8 +5830,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -5575,15 +5850,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC9205-2A0D-B749-97AC-D2AFC6A4D658}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="P29" sqref="P2:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5629,8 +5904,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -5678,8 +5956,11 @@
         <f>D2</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -5727,8 +6008,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -5776,8 +6060,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -5825,8 +6112,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -5874,8 +6164,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -5923,8 +6216,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -5972,8 +6268,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -6021,8 +6320,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -6070,8 +6372,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -6119,8 +6424,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -6168,8 +6476,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -6217,8 +6528,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -6266,8 +6580,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -6315,8 +6632,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -6364,8 +6684,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -6413,8 +6736,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -6462,8 +6788,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -6511,8 +6840,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -6560,8 +6892,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -6609,8 +6944,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -6658,8 +6996,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -6707,8 +7048,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -6756,8 +7100,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -6805,8 +7152,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -6854,8 +7204,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -6903,8 +7256,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -6952,8 +7308,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -7001,8 +7360,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -7778,7 +8140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119A10C-DEE6-44DA-A45C-EC615783AC06}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9975,7 +10337,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="P1" sqref="P1:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9990,7 +10352,7 @@
     <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10036,8 +10398,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -10083,8 +10448,11 @@
       <c r="O2" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -10135,8 +10503,11 @@
       <c r="O3" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -10187,8 +10558,11 @@
       <c r="O4" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -10239,8 +10613,11 @@
       <c r="O5" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -10291,8 +10668,11 @@
       <c r="O6" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -10343,8 +10723,11 @@
       <c r="O7" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -10395,8 +10778,11 @@
       <c r="O8" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -10446,8 +10832,11 @@
       <c r="O9" s="26">
         <v>6100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -10498,8 +10887,11 @@
       <c r="O10" s="26">
         <v>9500</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -10550,8 +10942,11 @@
       <c r="O11" s="26">
         <v>12900</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -10602,8 +10997,11 @@
       <c r="O12" s="26">
         <v>16300</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -10654,8 +11052,11 @@
       <c r="O13" s="26">
         <v>19700</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -10706,8 +11107,11 @@
       <c r="O14" s="26">
         <v>23100</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -10757,12 +11161,15 @@
       <c r="O15" s="26">
         <v>26500.000000000015</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>230700</v>
       </c>
       <c r="C16" s="10">
@@ -10773,11 +11180,11 @@
         <f>ROUND(capacity!D16*cf!D16*8760/1000, 0)</f>
         <v>57850</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <f>(capacity!E16/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <f>(capacity!F16/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -10789,19 +11196,19 @@
         <f>ROUND(capacity!H16*cf!H16*8760/1000, 0)</f>
         <v>90063</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <v>4559</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <v>457</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="33">
         <v>13365</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="32">
         <v>24172</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="32">
         <v>2384</v>
       </c>
       <c r="N16" s="26">
@@ -10812,12 +11219,15 @@
         <f>O15+(D15-D16)</f>
         <v>30950.000000000015</v>
       </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>230700</v>
       </c>
       <c r="C17" s="10">
@@ -10828,11 +11238,11 @@
         <f>ROUND(capacity!D17*cf!D17*8760/1000, 0)</f>
         <v>53400</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f>(capacity!E17/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <f>(capacity!F17/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -10844,19 +11254,19 @@
         <f>ROUND(capacity!H17*cf!H17*8760/1000, 0)</f>
         <v>101209</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <v>4559</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="32">
         <v>457</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <v>13365</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="32">
         <v>24172</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="32">
         <v>2384</v>
       </c>
       <c r="N17" s="26">
@@ -10867,12 +11277,15 @@
         <f t="shared" ref="O17:O29" si="1">O16+(D16-D17)</f>
         <v>35400.000000000015</v>
       </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>230700</v>
       </c>
       <c r="C18" s="10">
@@ -10883,11 +11296,11 @@
         <f>ROUND(capacity!D18*cf!D18*8760/1000, 0)</f>
         <v>48950</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <f>(capacity!E18/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <f>(capacity!F18/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -10899,19 +11312,19 @@
         <f>ROUND(capacity!H18*cf!H18*8760/1000, 0)</f>
         <v>113683</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>4559</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>457</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <v>13365</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="32">
         <v>24172</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="32">
         <v>2384</v>
       </c>
       <c r="N18" s="26">
@@ -10922,12 +11335,15 @@
         <f t="shared" si="1"/>
         <v>39850.000000000015</v>
       </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>230700</v>
       </c>
       <c r="C19" s="10">
@@ -10938,11 +11354,11 @@
         <f>ROUND(capacity!D19*cf!D19*8760/1000, 0)</f>
         <v>44500</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f>(capacity!E19/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f>(capacity!F19/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -10954,19 +11370,19 @@
         <f>ROUND(capacity!H19*cf!H19*8760/1000, 0)</f>
         <v>127640</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <v>4559</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>457</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <v>13365</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="32">
         <v>24172</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="32">
         <v>2384</v>
       </c>
       <c r="N19" s="26">
@@ -10977,12 +11393,15 @@
         <f t="shared" si="1"/>
         <v>44300.000000000015</v>
       </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>230700</v>
       </c>
       <c r="C20" s="10">
@@ -10993,11 +11412,11 @@
         <f>ROUND(capacity!D20*cf!D20*8760/1000, 0)</f>
         <v>40050</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <f>(capacity!E20/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <f>(capacity!F20/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11009,19 +11428,19 @@
         <f>ROUND(capacity!H20*cf!H20*8760/1000, 0)</f>
         <v>143251</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="32">
         <v>4559</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="32">
         <v>457</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <v>13365</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="32">
         <v>24172</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="32">
         <v>2384</v>
       </c>
       <c r="N20" s="26">
@@ -11032,12 +11451,15 @@
         <f t="shared" si="1"/>
         <v>48750.000000000015</v>
       </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>230700</v>
       </c>
       <c r="C21" s="10">
@@ -11048,11 +11470,11 @@
         <f>ROUND(capacity!D21*cf!D21*8760/1000, 0)</f>
         <v>35600</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <f>(capacity!E21/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <f>(capacity!F21/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11064,19 +11486,19 @@
         <f>ROUND(capacity!H21*cf!H21*8760/1000, 0)</f>
         <v>160709</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <v>4559</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <v>457</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <v>13365</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="32">
         <v>24172</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="32">
         <v>2384</v>
       </c>
       <c r="N21" s="26">
@@ -11087,12 +11509,15 @@
         <f t="shared" si="1"/>
         <v>53200.000000000015</v>
       </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>230700</v>
       </c>
       <c r="C22" s="10">
@@ -11103,11 +11528,11 @@
         <f>ROUND(capacity!D22*cf!D22*8760/1000, 0)</f>
         <v>31150</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f>(capacity!E22/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <f>(capacity!F22/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11119,19 +11544,19 @@
         <f>ROUND(capacity!H22*cf!H22*8760/1000, 0)</f>
         <v>180225</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <v>4559</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="32">
         <v>457</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <v>13365</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="32">
         <v>24172</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="32">
         <v>2384</v>
       </c>
       <c r="N22" s="26">
@@ -11142,12 +11567,15 @@
         <f t="shared" si="1"/>
         <v>57650.000000000015</v>
       </c>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <v>230700</v>
       </c>
       <c r="C23" s="10">
@@ -11158,11 +11586,11 @@
         <f>ROUND(capacity!D23*cf!D23*8760/1000, 0)</f>
         <v>26700</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <f>(capacity!E23/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <f>(capacity!F23/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11174,19 +11602,19 @@
         <f>ROUND(capacity!H23*cf!H23*8760/1000, 0)</f>
         <v>202037</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <v>4559</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <v>457</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <v>13365</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="32">
         <v>24172</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <v>2384</v>
       </c>
       <c r="N23" s="26">
@@ -11197,12 +11625,15 @@
         <f t="shared" si="1"/>
         <v>62100.000000000015</v>
       </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>230700</v>
       </c>
       <c r="C24" s="10">
@@ -11213,11 +11644,11 @@
         <f>ROUND(capacity!D24*cf!D24*8760/1000, 0)</f>
         <v>22250</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <f>(capacity!E24/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <f>(capacity!F24/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11229,19 +11660,19 @@
         <f>ROUND(capacity!H24*cf!H24*8760/1000, 0)</f>
         <v>226410</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <v>4559</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <v>457</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="33">
         <v>13365</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="32">
         <v>24172</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>2384</v>
       </c>
       <c r="N24" s="26">
@@ -11252,12 +11683,15 @@
         <f t="shared" si="1"/>
         <v>66550.000000000015</v>
       </c>
+      <c r="P24" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>230700</v>
       </c>
       <c r="C25" s="10">
@@ -11268,11 +11702,11 @@
         <f>ROUND(capacity!D25*cf!D25*8760/1000, 0)</f>
         <v>17800</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f>(capacity!E25/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f>(capacity!F25/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11284,19 +11718,19 @@
         <f>ROUND(capacity!H25*cf!H25*8760/1000, 0)</f>
         <v>253637</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <v>4559</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="32">
         <v>457</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <v>13365</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="32">
         <v>24172</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <v>2384</v>
       </c>
       <c r="N25" s="26">
@@ -11307,12 +11741,15 @@
         <f t="shared" si="1"/>
         <v>71000.000000000015</v>
       </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>230700</v>
       </c>
       <c r="C26" s="10">
@@ -11323,11 +11760,11 @@
         <f>ROUND(capacity!D26*cf!D26*8760/1000, 0)</f>
         <v>13350</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <f>(capacity!E26/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <f>(capacity!F26/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11339,19 +11776,19 @@
         <f>ROUND(capacity!H26*cf!H26*8760/1000, 0)</f>
         <v>284045</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="32">
         <v>4559</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="32">
         <v>457</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <v>13365</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="32">
         <v>24172</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="32">
         <v>2384</v>
       </c>
       <c r="N26" s="26">
@@ -11362,12 +11799,15 @@
         <f t="shared" si="1"/>
         <v>75450.000000000015</v>
       </c>
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>230700</v>
       </c>
       <c r="C27" s="10">
@@ -11378,11 +11818,11 @@
         <f>ROUND(capacity!D27*cf!D27*8760/1000, 0)</f>
         <v>8900</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <f>(capacity!E27/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <f>(capacity!F27/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11394,19 +11834,19 @@
         <f>ROUND(capacity!H27*cf!H27*8760/1000, 0)</f>
         <v>317998</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <v>4559</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="32">
         <v>457</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <v>13365</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="32">
         <v>24172</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="32">
         <v>2384</v>
       </c>
       <c r="N27" s="26">
@@ -11417,12 +11857,15 @@
         <f t="shared" si="1"/>
         <v>79900.000000000015</v>
       </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>230700</v>
       </c>
       <c r="C28" s="10">
@@ -11433,11 +11876,11 @@
         <f>ROUND(capacity!D28*cf!D28*8760/1000, 0)</f>
         <v>4450</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <f>(capacity!E28/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31">
         <f>(capacity!F28/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11449,19 +11892,19 @@
         <f>ROUND(capacity!H28*cf!H28*8760/1000, 0)</f>
         <v>355902</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="32">
         <v>4559</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="32">
         <v>457</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="33">
         <v>13365</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="32">
         <v>24172</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="32">
         <v>2384</v>
       </c>
       <c r="N28" s="26">
@@ -11472,12 +11915,15 @@
         <f t="shared" si="1"/>
         <v>84350.000000000015</v>
       </c>
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>230700</v>
       </c>
       <c r="C29" s="10">
@@ -11488,11 +11934,11 @@
         <f>ROUND(capacity!D29*cf!D29*8760/1000, 0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="31">
         <f>(capacity!E29/capacity!E$2)*generation!E$2</f>
         <v>5224.8936170212774</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <f>(capacity!F29/capacity!F$2)*generation!F$2</f>
         <v>1760.7272727272727</v>
       </c>
@@ -11504,19 +11950,19 @@
         <f>ROUND(capacity!H29*cf!H29*8760/1000, 0)</f>
         <v>398206</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="32">
         <v>4559</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="32">
         <v>457</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <v>13365</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="32">
         <v>24172</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="32">
         <v>2384</v>
       </c>
       <c r="N29" s="26">
@@ -11527,7 +11973,9 @@
         <f t="shared" si="1"/>
         <v>88800.000000000015</v>
       </c>
-      <c r="P29" s="31"/>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -12149,15 +12597,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA66E9AE-6176-445B-BF01-19425559CF11}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="P1" sqref="P1:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12203,8 +12651,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -12259,8 +12710,11 @@
         <f>D2</f>
         <v>0.40287356321839085</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -12315,8 +12769,11 @@
         <f t="shared" ref="O3:O15" si="1">D3</f>
         <v>0.38494893366685345</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -12371,8 +12828,11 @@
         <f t="shared" si="1"/>
         <v>0.36702430411531611</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -12427,8 +12887,11 @@
         <f t="shared" si="1"/>
         <v>0.34909967456377877</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -12483,8 +12946,11 @@
         <f t="shared" si="1"/>
         <v>0.33117504501224138</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -12539,8 +13005,11 @@
         <f t="shared" si="1"/>
         <v>0.31325041546070403</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -12595,8 +13064,11 @@
         <f t="shared" si="1"/>
         <v>0.29532578590916669</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -12656,8 +13128,11 @@
         <f t="shared" si="1"/>
         <v>0.2774011563576293</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -12712,8 +13187,11 @@
         <f t="shared" si="1"/>
         <v>0.24951611364714391</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -12768,8 +13246,11 @@
         <f t="shared" si="1"/>
         <v>0.22163107093665854</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -12824,8 +13305,11 @@
         <f t="shared" si="1"/>
         <v>0.19374602822617315</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -12880,8 +13364,11 @@
         <f t="shared" si="1"/>
         <v>0.16586098551568779</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -12936,8 +13423,11 @@
         <f t="shared" si="1"/>
         <v>0.13797594280520242</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -12997,8 +13487,11 @@
         <f t="shared" si="1"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -13057,8 +13550,11 @@
         <f t="shared" ref="O16" si="2">O15</f>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -13117,8 +13613,11 @@
         <f t="shared" ref="O17:O29" si="6">O16</f>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -13177,8 +13676,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -13237,8 +13739,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -13297,8 +13802,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -13357,8 +13865,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -13417,8 +13928,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -13477,8 +13991,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -13537,8 +14054,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -13597,8 +14117,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -13657,8 +14180,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -13717,8 +14243,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -13777,8 +14306,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -13837,8 +14369,11 @@
         <f t="shared" si="6"/>
         <v>0.11009090009471707</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -13860,15 +14395,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCA35CF-C306-494D-B391-AA96559448B9}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -13914,8 +14449,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -13961,8 +14499,11 @@
       <c r="O2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -14008,8 +14549,11 @@
       <c r="O3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -14055,8 +14599,11 @@
       <c r="O4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -14102,8 +14649,11 @@
       <c r="O5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -14149,8 +14699,11 @@
       <c r="O6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -14196,8 +14749,11 @@
       <c r="O7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -14243,8 +14799,11 @@
       <c r="O8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -14290,8 +14849,11 @@
       <c r="O9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -14337,8 +14899,11 @@
       <c r="O10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -14384,8 +14949,11 @@
       <c r="O11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -14431,8 +14999,11 @@
       <c r="O12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -14478,8 +15049,11 @@
       <c r="O13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -14525,8 +15099,11 @@
       <c r="O14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -14572,8 +15149,11 @@
       <c r="O15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -14619,8 +15199,11 @@
       <c r="O16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -14666,8 +15249,11 @@
       <c r="O17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -14713,8 +15299,11 @@
       <c r="O18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -14760,8 +15349,11 @@
       <c r="O19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -14807,8 +15399,11 @@
       <c r="O20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -14854,8 +15449,11 @@
       <c r="O21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -14901,8 +15499,11 @@
       <c r="O22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -14948,8 +15549,11 @@
       <c r="O23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -14995,8 +15599,11 @@
       <c r="O24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -15042,8 +15649,11 @@
       <c r="O25" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -15089,8 +15699,11 @@
       <c r="O26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -15136,8 +15749,11 @@
       <c r="O27" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -15183,8 +15799,11 @@
       <c r="O28" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -15230,8 +15849,11 @@
       <c r="O29" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -15250,10 +15872,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFF89F3-3008-41F2-A03F-5952B2E88448}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15265,7 +15887,7 @@
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -15311,8 +15933,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -15362,8 +15987,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -15413,8 +16041,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -15464,8 +16095,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -15515,8 +16149,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -15566,8 +16203,11 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -15617,8 +16257,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -15668,8 +16311,11 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -15719,8 +16365,11 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -15770,8 +16419,11 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -15821,8 +16473,11 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -15872,8 +16527,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -15923,8 +16581,11 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -15974,8 +16635,11 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -16025,8 +16689,11 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -16076,8 +16743,11 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -16127,8 +16797,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -16178,8 +16851,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -16229,8 +16905,11 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -16280,8 +16959,11 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -16331,8 +17013,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -16382,8 +17067,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -16433,8 +17121,11 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -16484,8 +17175,11 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -16535,8 +17229,11 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -16586,8 +17283,11 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -16637,8 +17337,11 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -16688,8 +17391,11 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -16739,8 +17445,11 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -16748,7 +17457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -16768,7 +17477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -16785,10 +17494,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5601BE74-95C2-4EEB-B2A4-070E325785B2}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16796,9 +17505,10 @@
     <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -16844,8 +17554,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -16898,8 +17611,11 @@
         <f>D2</f>
         <v>924000</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -16954,8 +17670,11 @@
         <f t="shared" ref="O3:O29" si="7">D3</f>
         <v>936174.75728155347</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -17010,8 +17729,11 @@
         <f t="shared" si="7"/>
         <v>948349.51456310682</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -17066,8 +17788,11 @@
         <f t="shared" si="7"/>
         <v>960524.27184466028</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -17122,8 +17847,11 @@
         <f t="shared" si="7"/>
         <v>972699.02912621363</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -17178,8 +17906,11 @@
         <f t="shared" si="7"/>
         <v>984873.7864077671</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -17234,8 +17965,11 @@
         <f t="shared" si="7"/>
         <v>997048.54368932045</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>2999999.9999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -17290,8 +18024,11 @@
         <f t="shared" si="7"/>
         <v>1009223.3009708738</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -17349,8 +18086,11 @@
         <f t="shared" si="7"/>
         <v>1021398.0582524277</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -17408,8 +18148,11 @@
         <f t="shared" si="7"/>
         <v>1033572.8155339807</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -17467,8 +18210,11 @@
         <f t="shared" si="7"/>
         <v>1045747.5728155337</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -17526,8 +18272,11 @@
         <f t="shared" si="7"/>
         <v>1057922.3300970905</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -17585,8 +18334,11 @@
         <f t="shared" si="7"/>
         <v>1070097.0873786435</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -17644,8 +18396,11 @@
         <f t="shared" si="7"/>
         <v>1082271.8446601965</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -17705,8 +18460,11 @@
         <f t="shared" si="7"/>
         <v>1094446.6019417495</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -17766,8 +18524,11 @@
         <f t="shared" si="7"/>
         <v>1106621.3592233025</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -17827,8 +18588,11 @@
         <f t="shared" si="7"/>
         <v>1118796.1165048555</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -17888,8 +18652,11 @@
         <f t="shared" si="7"/>
         <v>1130970.8737864085</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -17949,8 +18716,11 @@
         <f t="shared" si="7"/>
         <v>1143145.6310679615</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -18010,8 +18780,11 @@
         <f t="shared" si="7"/>
         <v>1155320.3883495145</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -18071,8 +18844,11 @@
         <f t="shared" si="7"/>
         <v>1167495.1456310675</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -18132,8 +18908,11 @@
         <f t="shared" si="7"/>
         <v>1179669.9029126242</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -18193,8 +18972,11 @@
         <f t="shared" si="7"/>
         <v>1191844.6601941772</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -18254,8 +19036,11 @@
         <f t="shared" si="7"/>
         <v>1204019.4174757302</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -18315,8 +19100,11 @@
         <f t="shared" si="7"/>
         <v>1216194.1747572832</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -18376,8 +19164,11 @@
         <f t="shared" si="7"/>
         <v>1228368.9320388362</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -18437,8 +19228,11 @@
         <f t="shared" si="7"/>
         <v>1240543.6893203892</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -18498,8 +19292,11 @@
         <f t="shared" si="7"/>
         <v>1252718.4466019422</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -18507,7 +19304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -18548,7 +19345,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -18578,15 +19375,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4515AA6-2B73-4F53-A5A8-A777A44DF24D}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27:Q28"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18632,8 +19429,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -18691,8 +19491,12 @@
         <f>D2</f>
         <v>43476</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="13">
+        <f>capex!P2*0.025</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -18749,11 +19553,15 @@
         <v>66659.758237822345</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ref="O3:O29" si="1">D3</f>
+        <f t="shared" ref="O3:P29" si="1">D3</f>
         <v>44048.846047156723</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="6">
+        <f>P$2*capex!P3/capex!P$2</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -18813,8 +19621,12 @@
         <f t="shared" si="1"/>
         <v>44621.692094313454</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="6">
+        <f>P$2*capex!P4/capex!P$2</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -18874,8 +19686,12 @@
         <f t="shared" si="1"/>
         <v>45194.538141470184</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="6">
+        <f>P$2*capex!P5/capex!P$2</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -18935,8 +19751,12 @@
         <f t="shared" si="1"/>
         <v>45767.384188626915</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="6">
+        <f>P$2*capex!P6/capex!P$2</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -18996,8 +19816,12 @@
         <f t="shared" si="1"/>
         <v>46340.230235783638</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="6">
+        <f>P$2*capex!P7/capex!P$2</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -19057,8 +19881,12 @@
         <f t="shared" si="1"/>
         <v>46913.076282940368</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="6">
+        <f>P$2*capex!P8/capex!P$2</f>
+        <v>74999.999999999985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -19118,8 +19946,12 @@
         <f t="shared" si="1"/>
         <v>47485.922330097092</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="6">
+        <f>P$2*capex!P9/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -19179,8 +20011,12 @@
         <f t="shared" si="1"/>
         <v>48058.768377253844</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="6">
+        <f>P$2*capex!P10/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -19240,8 +20076,12 @@
         <f t="shared" si="1"/>
         <v>48631.614424410553</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="6">
+        <f>P$2*capex!P11/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -19301,8 +20141,12 @@
         <f t="shared" si="1"/>
         <v>49204.460471567254</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="6">
+        <f>P$2*capex!P12/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -19362,8 +20206,12 @@
         <f t="shared" si="1"/>
         <v>49777.306518724137</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="6">
+        <f>P$2*capex!P13/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -19423,8 +20271,12 @@
         <f t="shared" si="1"/>
         <v>50350.152565880846</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="6">
+        <f>P$2*capex!P14/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -19484,8 +20336,12 @@
         <f t="shared" si="1"/>
         <v>50922.998613037555</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="6">
+        <f>P$2*capex!P15/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -19545,8 +20401,12 @@
         <f t="shared" si="1"/>
         <v>51495.844660194263</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="6">
+        <f>P$2*capex!P16/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -19606,8 +20466,12 @@
         <f t="shared" si="1"/>
         <v>52068.690707350972</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="6">
+        <f>P$2*capex!P17/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -19667,8 +20531,12 @@
         <f t="shared" si="1"/>
         <v>52641.536754507673</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="6">
+        <f>P$2*capex!P18/capex!P$2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -19728,8 +20596,12 @@
         <f t="shared" si="1"/>
         <v>53214.382801664382</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="6">
+        <f>P$2*capex!P19/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -19789,8 +20661,12 @@
         <f t="shared" si="1"/>
         <v>53787.228848821098</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="6">
+        <f>P$2*capex!P20/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -19850,8 +20726,12 @@
         <f t="shared" si="1"/>
         <v>54360.074895977807</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="6">
+        <f>P$2*capex!P21/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -19911,8 +20791,12 @@
         <f t="shared" si="1"/>
         <v>54932.920943134515</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="6">
+        <f>P$2*capex!P22/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -19972,8 +20856,12 @@
         <f t="shared" si="1"/>
         <v>55505.766990291399</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="6">
+        <f>P$2*capex!P23/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -20033,8 +20921,12 @@
         <f t="shared" si="1"/>
         <v>56078.613037448107</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="6">
+        <f>P$2*capex!P24/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -20094,8 +20986,12 @@
         <f t="shared" si="1"/>
         <v>56651.459084604809</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="6">
+        <f>P$2*capex!P25/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -20155,8 +21051,12 @@
         <f t="shared" si="1"/>
         <v>57224.305131761517</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="6">
+        <f>P$2*capex!P26/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -20216,8 +21116,12 @@
         <f t="shared" si="1"/>
         <v>57797.151178918226</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="6">
+        <f>P$2*capex!P27/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -20277,8 +21181,12 @@
         <f t="shared" si="1"/>
         <v>58369.997226074935</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="6">
+        <f>P$2*capex!P28/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -20338,8 +21246,12 @@
         <f t="shared" si="1"/>
         <v>58942.843273231643</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="6">
+        <f>P$2*capex!P29/capex!P$2</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -20347,7 +21259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -20388,7 +21300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -20425,10 +21337,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E295D055-CDA1-4DB0-8C0C-EE0CADCAB2C0}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="P29" sqref="P2:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20437,7 +21349,7 @@
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20483,8 +21395,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -20534,8 +21449,11 @@
         <f>altfuelcost!E2</f>
         <v>562.0608899297423</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -20585,8 +21503,11 @@
         <f>altfuelcost!E3</f>
         <v>449.64871194379384</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -20639,8 +21560,11 @@
         <f>altfuelcost!E4</f>
         <v>337.23653395784538</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -20693,8 +21617,11 @@
         <f>altfuelcost!E5</f>
         <v>309.13348946135829</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -20747,8 +21674,11 @@
         <f>altfuelcost!E6</f>
         <v>281.03044496487115</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -20801,8 +21731,11 @@
         <f>altfuelcost!E7</f>
         <v>252.92740046838404</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -20855,8 +21788,11 @@
         <f>altfuelcost!E8</f>
         <v>224.82435597189698</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -20909,8 +21845,11 @@
         <f>altfuelcost!E9</f>
         <v>196.72131147540986</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -20963,8 +21902,11 @@
         <f>altfuelcost!E10</f>
         <v>191.80327868852461</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -21017,8 +21959,11 @@
         <f>altfuelcost!E11</f>
         <v>186.88524590163937</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -21071,8 +22016,11 @@
         <f>altfuelcost!E12</f>
         <v>181.96721311475414</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -21125,8 +22073,11 @@
         <f>altfuelcost!E13</f>
         <v>177.0491803278689</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -21179,8 +22130,11 @@
         <f>altfuelcost!E14</f>
         <v>172.13114754098368</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -21233,8 +22187,11 @@
         <f>altfuelcost!E15</f>
         <v>167.2131147540984</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -21287,8 +22244,11 @@
         <f>altfuelcost!E16</f>
         <v>162.29508196721309</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -21341,8 +22301,11 @@
         <f>altfuelcost!E17</f>
         <v>157.37704918032787</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -21395,8 +22358,11 @@
         <f>altfuelcost!E18</f>
         <v>152.45901639344262</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -21449,8 +22415,11 @@
         <f>altfuelcost!E19</f>
         <v>147.54098360655738</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -21503,8 +22472,11 @@
         <f>altfuelcost!E20</f>
         <v>145.08196721311472</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -21557,8 +22529,11 @@
         <f>altfuelcost!E21</f>
         <v>142.6229508196721</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -21611,8 +22586,11 @@
         <f>altfuelcost!E22</f>
         <v>140.1639344262295</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -21665,8 +22643,11 @@
         <f>altfuelcost!E23</f>
         <v>137.70491803278688</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -21719,8 +22700,11 @@
         <f>altfuelcost!E24</f>
         <v>135.24590163934425</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -21773,8 +22757,11 @@
         <f>altfuelcost!E25</f>
         <v>132.78688524590163</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -21827,8 +22814,11 @@
         <f>altfuelcost!E26</f>
         <v>130.32786885245903</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -21881,8 +22871,11 @@
         <f>altfuelcost!E27</f>
         <v>127.86885245901638</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -21935,8 +22928,11 @@
         <f>altfuelcost!E28</f>
         <v>125.40983606557376</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -21989,8 +22985,11 @@
         <f>altfuelcost!E29</f>
         <v>122.95081967213113</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -21998,7 +22997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -22006,7 +23005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -22037,15 +23036,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFD22E-479E-44B6-94C7-43FBC92888B1}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="P29" sqref="P2:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22091,8 +23090,11 @@
       <c r="O1" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -22149,8 +23151,12 @@
         <f>D2</f>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <f>D2</f>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -22207,8 +23213,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <f t="shared" ref="P3:P29" si="7">D3</f>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -22265,8 +23275,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -22323,8 +23337,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -22381,8 +23399,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -22439,8 +23461,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -22497,8 +23523,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -22555,8 +23585,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -22613,8 +23647,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -22671,8 +23709,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -22729,8 +23771,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -22787,8 +23833,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -22845,8 +23895,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -22903,8 +23957,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -22961,8 +24019,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -23019,8 +24081,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -23077,8 +24143,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -23116,15 +24186,15 @@
         <v>5300</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:M29" si="7">$G19*0.1</f>
+        <f t="shared" ref="K19:M29" si="8">$G19*0.1</f>
         <v>1410.3000000000002</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N19" s="6">
@@ -23135,21 +24205,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2041</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:D29" si="8">$G20*0.1</f>
+        <f t="shared" ref="B20:D29" si="9">$G20*0.1</f>
         <v>1410.3000000000002</v>
       </c>
       <c r="C20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E20">
@@ -23174,15 +24248,15 @@
         <v>5300</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N20" s="6">
@@ -23193,21 +24267,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2042</v>
       </c>
       <c r="B21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E21">
@@ -23232,15 +24310,15 @@
         <v>5300</v>
       </c>
       <c r="K21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N21" s="6">
@@ -23251,21 +24329,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2043</v>
       </c>
       <c r="B22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E22">
@@ -23290,15 +24372,15 @@
         <v>5300</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N22" s="6">
@@ -23309,21 +24391,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2044</v>
       </c>
       <c r="B23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E23">
@@ -23348,15 +24434,15 @@
         <v>5300</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N23" s="6">
@@ -23367,21 +24453,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2045</v>
       </c>
       <c r="B24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E24">
@@ -23406,15 +24496,15 @@
         <v>5300</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N24" s="6">
@@ -23425,21 +24515,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2046</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E25">
@@ -23464,15 +24558,15 @@
         <v>5300</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N25" s="6">
@@ -23483,21 +24577,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2047</v>
       </c>
       <c r="B26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E26">
@@ -23522,15 +24620,15 @@
         <v>5300</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N26" s="6">
@@ -23541,21 +24639,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2048</v>
       </c>
       <c r="B27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E27">
@@ -23580,15 +24682,15 @@
         <v>5300</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N27" s="6">
@@ -23599,21 +24701,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2049</v>
       </c>
       <c r="B28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E28">
@@ -23638,15 +24744,15 @@
         <v>5300</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N28" s="6">
@@ -23657,21 +24763,25 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2050</v>
       </c>
       <c r="B29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="E29">
@@ -23696,15 +24806,15 @@
         <v>5300</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="L29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="M29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1410.3000000000002</v>
       </c>
       <c r="N29" s="6">
@@ -23715,8 +24825,12 @@
         <f t="shared" si="6"/>
         <v>1410.3000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>1410.3000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
